--- a/WorldBuilder.xlsx
+++ b/WorldBuilder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0857f1007b00f174/Desktop/CodeProjects/RK4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{B216423E-515C-46F0-8485-44DA8BD5A38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{836BBE34-4820-417E-9B24-C23850D64AE4}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{B216423E-515C-46F0-8485-44DA8BD5A38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC6307A-E6C5-4BE8-BF41-8FA26F5DA721}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{552B6719-560E-4CE6-9C46-D2BB944E1FD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{552B6719-560E-4CE6-9C46-D2BB944E1FD4}"/>
   </bookViews>
   <sheets>
     <sheet name="WorldBuilder" sheetId="1" r:id="rId1"/>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF99E9F-59C5-4BC8-8BBC-57EB6CF50C05}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -768,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
@@ -930,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A378B9-FFC7-414F-922C-D24122462C01}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/WorldBuilder.xlsx
+++ b/WorldBuilder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0857f1007b00f174/Desktop/CodeProjects/RK4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0857f1007b00f174/Desktop/rk4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{B216423E-515C-46F0-8485-44DA8BD5A38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC6307A-E6C5-4BE8-BF41-8FA26F5DA721}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{B216423E-515C-46F0-8485-44DA8BD5A38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55AFB609-9BF3-4764-9993-9EF326FD7024}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{552B6719-560E-4CE6-9C46-D2BB944E1FD4}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="13763" xr2:uid="{552B6719-560E-4CE6-9C46-D2BB944E1FD4}"/>
   </bookViews>
   <sheets>
     <sheet name="WorldBuilder" sheetId="1" r:id="rId1"/>
@@ -705,16 +705,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF99E9F-59C5-4BC8-8BBC-57EB6CF50C05}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1328125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="15.140625" style="2"/>
+    <col min="1" max="16384" width="15.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -728,7 +726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -751,7 +749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -774,7 +772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -797,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -817,7 +815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
@@ -831,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -859,7 +857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -873,7 +871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -887,7 +885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -934,13 +932,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="172.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="172.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -951,7 +949,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -973,7 +971,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,7 +982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -995,7 +993,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1004,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1014,7 +1012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1022,7 +1020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1030,7 +1028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1038,7 +1036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1046,7 +1044,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1054,7 +1052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1062,7 +1060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1070,7 +1068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1078,7 +1076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1086,7 +1084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1097,7 +1095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1105,7 +1103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1116,7 +1114,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1127,7 +1125,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1135,7 +1133,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
